--- a/Out/OPCIONES PARA ARQA - 1.xlsx
+++ b/Out/OPCIONES PARA ARQA - 1.xlsx
@@ -9,6 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,11 +500,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -508,11 +512,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -523,13 +523,17 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -539,13 +543,17 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -555,13 +563,21 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -571,13 +587,21 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA A [LTT1]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -588,7 +612,11 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -600,7 +628,11 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -612,7 +644,11 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -624,7 +660,11 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -637,13 +677,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -657,13 +697,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -677,13 +717,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -697,13 +737,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
+          <t>MATEMÁTICAS [MAT1]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -715,22 +755,10 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -739,22 +767,10 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -763,22 +779,10 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -787,22 +791,10 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -820,7 +812,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -840,7 +832,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -860,7 +852,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -880,7 +872,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -894,13 +886,13 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -914,13 +906,13 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -934,13 +926,13 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -954,13 +946,13 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -974,13 +966,13 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -994,13 +986,599 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1096,11 +1674,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1112,11 +1686,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1125,14 +1695,18 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1141,14 +1715,18 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1157,14 +1735,22 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1173,14 +1759,22 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA A [LTT2]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1190,7 +1784,11 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1202,7 +1800,11 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1214,7 +1816,11 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1226,7 +1832,11 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1237,17 +1847,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -1257,17 +1859,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -1277,17 +1871,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -1297,17 +1883,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DIBUJO ARQUITECTÓNICO I [DA1]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -1317,20 +1895,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
+          <t>MATEMÁTICAS [MAT2]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1341,20 +1915,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
+          <t>MATEMÁTICAS [MAT2]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1365,20 +1935,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
+          <t>MATEMÁTICAS [MAT2]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1389,20 +1955,16 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MATEMÁTICAS [MATE]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TALLER AUTOCAD [AUD1]</t>
+          <t>MATEMÁTICAS [MAT2]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1422,7 +1984,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1442,7 +2004,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1462,7 +2024,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1482,7 +2044,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TALLER CMD [CMA1]</t>
+          <t>TALLER AUTOCAD [CAD3]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1496,13 +2058,13 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1516,13 +2078,13 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1536,13 +2098,13 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1556,13 +2118,13 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1576,13 +2138,13 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1596,13 +2158,13 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1]</t>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1622,4 +2184,4106 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1B]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT2]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT3]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD3]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ju</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIBUJO ARQUITECTÓNICO I [DA1A]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA A [LTT1]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MATEMÁTICAS [MAT1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TALLER AUTOCAD [CAD2]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPOGRAFÍA A [TTT1]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>COMPOSICIÓN ARQUITECTÓNICA I [CA1A]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>